--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24" count="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
   <x:si>
     <x:t>cpf</x:t>
   </x:si>
@@ -34,58 +34,103 @@
     <x:t>valorSaqueMinimo</x:t>
   </x:si>
   <x:si>
-    <x:t>451716884</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1581</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1242366013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8292323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21627843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41941</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24846767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27115836</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33406863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33711828</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44550880</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68299885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73441805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82025835</x:t>
+    <x:t>00021627843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008018040801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7279092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00024846767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0016814459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8100939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00027115836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008024691401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9068269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00033406863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008024212101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7038776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00033711828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006036518500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6569032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00044550880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000445508100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9074604</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00068299885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000682998100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6693850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00073441805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000734418101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7689697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00082025835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000066582101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6541279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00087502542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005026767801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6520820</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -485,27 +530,27 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -513,159 +558,150 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Relatório.xlsx
+++ b/Relatório.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338" count="338">
   <x:si>
     <x:t>cpf</x:t>
   </x:si>
@@ -46,21 +46,27 @@
     <x:t>7279092</x:t>
   </x:si>
   <x:si>
+    <x:t>55.50999999999999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00024846767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0016814459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8100939</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.0</x:t>
   </x:si>
   <x:si>
-    <x:t>00024846767</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0016814459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8100939</x:t>
-  </x:si>
-  <x:si>
     <x:t>00027115836</x:t>
   </x:si>
   <x:si>
@@ -79,6 +85,9 @@
     <x:t>7038776</x:t>
   </x:si>
   <x:si>
+    <x:t>84.43</x:t>
+  </x:si>
+  <x:si>
     <x:t>00033711828</x:t>
   </x:si>
   <x:si>
@@ -88,6 +97,9 @@
     <x:t>6569032</x:t>
   </x:si>
   <x:si>
+    <x:t>96.88</x:t>
+  </x:si>
+  <x:si>
     <x:t>00044550880</x:t>
   </x:si>
   <x:si>
@@ -106,6 +118,9 @@
     <x:t>6693850</x:t>
   </x:si>
   <x:si>
+    <x:t>105.17000000000002</x:t>
+  </x:si>
+  <x:si>
     <x:t>00073441805</x:t>
   </x:si>
   <x:si>
@@ -131,6 +146,888 @@
   </x:si>
   <x:si>
     <x:t>6520820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00104539895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006010727700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8122245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00106055844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001060558100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6569679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00109095839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008466830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6844289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00109954807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008020111001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7386231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110.61999999999999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00116575883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001165758100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00119646854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008028476101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8124793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1306.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00122134893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001221348100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7553816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00128213817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0003551325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8208235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00129466808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0004439016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6552219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00132633825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008017635001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8966354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1714.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00139244867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008021207701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8090862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00139336800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001393368100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7334851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00139413804</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008005155901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7773736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00143263889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008009499501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6543548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00145443850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008005803401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8202211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00150547803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000124393103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6529125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00154151807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005035928901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7899497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00154766690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0015451290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8683891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00155428829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001554288100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7669515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00155555855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008018104101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9011009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00155800833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006000159300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6654766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00157969819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008296704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6535015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00159769809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001597698100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7343262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00160319897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008015852701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8349415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00166659886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008014528001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6832640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00166691852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001666918100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8731182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00167103806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001671038100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7571258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00168183854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0007761284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6789979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00173187854</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2001731878100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7537387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00185920829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1001859208100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6496699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00187603847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008016640601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8586896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00193118858</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008014506701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7350849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00193425866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008026266301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7949619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00197573878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005017995601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9126921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00199837864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008001964101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7413557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00200988808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2002009888100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6800183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00202051803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0010973837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6635776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00203435826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006000509300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6553910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1114.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00211132896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002111328100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6657665</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00216131847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008020996601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7273593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00216353823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2002163538100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6477338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00218115806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006030532101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7517497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00224094831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0009498126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7749551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00224471805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000056556101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8473375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00225773864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0015809237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7740580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00227377826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008020219601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6589236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00227652800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008291366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00236363867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008011765301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6578469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00236461877</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005873204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6675593</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00236921894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0004244321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6597250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78.05000000000001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00238143813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002381438100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8513941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00238608808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006028192500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6595937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00239014898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0007888466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7986228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1825.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00244390886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005027028101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8807528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00251677826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00252728882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002527288100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7323937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00253042836</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005016556701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6750512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00256923809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0009021784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7105749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00260335851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002603358100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8501741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00264700805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008023969701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8624517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00275277860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005018235702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6503798</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00276423801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008017596301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8104768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00286750880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002867508100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7637165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00288121821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008004554201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7102752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00288570898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0011596820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7804962</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00288767845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0007384749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6991623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00290420890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000066763101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6779518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00291852890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008010290001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7281844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00292934807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000086046102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7994914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00294424865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005904742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7226086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00294539840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006065410400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7776174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131.82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00294726870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008493571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6774095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00306567881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0012395481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6523598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00309758831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003097588100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6564718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00309997828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2003099978100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7274354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00312138717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>933771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7392897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.86999999999999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00313557225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9046306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00313853894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000003287101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7652636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00320222632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0011727792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6510663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00321523881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008007652201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6510514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142.44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00321679890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003216798100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6593652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>238.17000000000002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00337067864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0005782648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6544483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1625.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00337327874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2003373278100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7561105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00339542837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008017949601</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6512064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00341327832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0010457525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00344503860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003445038100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7040891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00345349890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2003453498100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6548031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00347681816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006055127700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7293122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00349006830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003490068100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8434230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00349084807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0008009941001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7324397</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -530,178 +1427,1903 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="A60" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="A61" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="A62" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="A63" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="A64" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="A65" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="A66" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="A67" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
